--- a/Final_version/data_4.xlsx
+++ b/Final_version/data_4.xlsx
@@ -408,7 +408,7 @@
         <v>2.61</v>
       </c>
       <c r="D2">
-        <v>1918.312</v>
+        <v>1918.309</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.139</v>
       </c>
       <c r="C3">
-        <v>14.853</v>
+        <v>14.854</v>
       </c>
       <c r="D3">
-        <v>2925.081</v>
+        <v>2925.091</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>25.085</v>
+        <v>25.08</v>
       </c>
       <c r="C4">
-        <v>12.093</v>
+        <v>12.094</v>
       </c>
       <c r="D4">
-        <v>3000.442</v>
+        <v>3000.432</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>26.09</v>
       </c>
       <c r="C5">
-        <v>0.174</v>
+        <v>0.172</v>
       </c>
       <c r="D5">
-        <v>1481.308</v>
+        <v>1478.316</v>
       </c>
     </row>
   </sheetData>
